--- a/Table S2 Gene List.xlsx
+++ b/Table S2 Gene List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnpaul47/Documents/Dissertation/A3 Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5474F-E986-424B-A000-F473B65B1BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665BF1E-536D-A941-A769-1878E2D8770D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="480" windowWidth="20460" windowHeight="18760" xr2:uid="{7274B2FB-8D04-7F46-8B50-CEE767EE3FF7}"/>
+    <workbookView xWindow="2160" yWindow="480" windowWidth="20460" windowHeight="18760" firstSheet="1" activeTab="5" xr2:uid="{7274B2FB-8D04-7F46-8B50-CEE767EE3FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="A3 Locus DEG" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1763">
   <si>
     <t>Zm00001d041780</t>
   </si>
@@ -5385,12 +5385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5707,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507072D8-5426-0F44-B013-BBC5A9B08797}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6330,7 +6331,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6339,22 +6340,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7658,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFCED95-F8AE-2645-A11D-6E4F1561E91E}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7672,22 +7673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>577</v>
       </c>
     </row>
@@ -11452,10 +11453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9862D6-2D7D-A44C-B9EF-0B53E52EA2AA}">
-  <dimension ref="A2:F264"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11463,6 +11464,26 @@
     <col min="6" max="6" width="91.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1492</v>
@@ -15840,10 +15861,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48DE20-998E-6943-94CB-2074D25C3FEB}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15851,6 +15872,26 @@
     <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>808</v>
@@ -16479,29 +16520,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC1C40C-5C4B-3C4C-845D-820C63652FFD}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>577</v>
       </c>
     </row>
